--- a/python/mutual_mold/files/07. PT. KTSI.xlsx
+++ b/python/mutual_mold/files/07. PT. KTSI.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. RIZKA\1. ERP\DATA MOLDING\0_+-¿p¦MÑU+O«¦\MoldData_20231122\07. PT. KTSI\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5A1907-C2C1-49B3-BD34-DA21762DBEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LIST MOLD" sheetId="1" r:id="rId1"/>
@@ -20,27 +14,20 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'LIST MOLD'!$A$1:$Q$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'LIST MOLD (2)'!$A$1:$Q$37</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="108">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Trebuchet MS"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">LIST PART/MOLD </t>
     </r>
     <r>
@@ -50,7 +37,7 @@
         <sz val="18"/>
         <color indexed="12"/>
         <rFont val="Trebuchet MS"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>PT. KTSI</t>
     </r>
@@ -326,6 +313,9 @@
     <t>MOLD ID</t>
   </si>
   <si>
+    <t>GATE SYSTEM</t>
+  </si>
+  <si>
     <t>58816-0D060</t>
   </si>
   <si>
@@ -372,48 +362,216 @@
   </si>
   <si>
     <t>95426-60KA0</t>
-  </si>
-  <si>
-    <t>WEIGHT                                           ( Kg )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;NT$&quot;* #,##0.00_-;\-&quot;NT$&quot;* #,##0.00_-;_-&quot;NT$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;NT$&quot;* #,##0_-;\-&quot;NT$&quot;* #,##0_-;_-&quot;NT$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Trebuchet MS"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Trebuchet MS"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Trebuchet MS"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <name val="Trebuchet MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -421,10 +579,10 @@
       <sz val="18"/>
       <color indexed="12"/>
       <name val="Trebuchet MS"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,8 +601,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -554,23 +898,8 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -580,67 +909,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="double">
         <color auto="1"/>
       </top>
@@ -702,14 +970,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -736,447 +1006,691 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Style 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Style 1" xfId="49"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -1187,7 +1701,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1215,47 +1729,161 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1271,13 +1899,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1134">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Group 1134"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1288,15 +1910,9 @@
           <a:chExt cx="2162825" cy="773091"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="WordArt 69">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="3" name="WordArt 69"/>
           <xdr:cNvSpPr>
             <a:spLocks noTextEdit="1"/>
           </xdr:cNvSpPr>
@@ -1401,24 +2017,27 @@
               </a:rPr>
               <a:t>PT. YUJU INDONESIA</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="3600">
+              <a:solidFill>
+                <a:srgbClr val="333399">
+                  <a:alpha val="100000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" charset="0"/>
+              <a:ea typeface="Arial Black" panose="020B0A04020102020204" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="Picture 360">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="4" name="Picture 360"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:blip r:embed="rId1"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1444,7 +2063,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1453,39 +2072,27 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>366991</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1134">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Group 1134"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="130549" y="47625"/>
-          <a:ext cx="3060324" cy="733985"/>
+          <a:off x="130175" y="47625"/>
+          <a:ext cx="2865120" cy="733425"/>
           <a:chOff x="29720" y="0"/>
           <a:chExt cx="2029085" cy="773091"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="WordArt 69">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="3" name="WordArt 69"/>
           <xdr:cNvSpPr>
             <a:spLocks noTextEdit="1"/>
           </xdr:cNvSpPr>
@@ -1590,24 +2197,27 @@
               </a:rPr>
               <a:t>PT. YUJU INDONESIA</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="3600">
+              <a:solidFill>
+                <a:srgbClr val="333399">
+                  <a:alpha val="100000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" charset="0"/>
+              <a:ea typeface="Arial Black" panose="020B0A04020102020204" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="Picture 360">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="4" name="Picture 360"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:blip r:embed="rId1"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1884,12 +2494,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" workbookViewId="0">
@@ -1921,1268 +2531,1196 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="77" t="s">
+    <row r="1" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="22" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="22" t="s">
+      <c r="M1" s="54"/>
+      <c r="N1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="19"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="22" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="32"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:17">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="22" t="s">
+      <c r="M2" s="54"/>
+      <c r="N2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="19"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="22" t="s">
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="32"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:17">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="22" t="s">
+      <c r="M3" s="54"/>
+      <c r="N3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="19"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="22" t="s">
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="32"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:17">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="22" t="s">
+      <c r="M4" s="54"/>
+      <c r="N4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="19"/>
-    </row>
-    <row r="5" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A5" s="44" t="s">
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="32"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="63" t="s">
+      <c r="C5" s="69"/>
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="70" t="s">
+      <c r="E5" s="69"/>
+      <c r="F5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="44" t="s">
+      <c r="J5" s="76"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="56" t="s">
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="52" t="s">
+      <c r="P5" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="53"/>
-    </row>
-    <row r="6" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A6" s="69"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="14" t="s">
+      <c r="Q5" s="77"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A6" s="70"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="76"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="89"/>
-    </row>
-    <row r="7" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A7" s="15">
+      <c r="O6" s="83"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="82"/>
+    </row>
+    <row r="7" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A7" s="23">
         <v>1</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47" t="s">
+      <c r="C7" s="75"/>
+      <c r="D7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26">
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="59">
         <v>1</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="50"/>
-      <c r="L7" s="42" t="s">
+      <c r="K7" s="61"/>
+      <c r="L7" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="27">
         <v>900</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="27">
         <v>795</v>
       </c>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="51"/>
-    </row>
-    <row r="8" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A8" s="13">
+      <c r="P7" s="25"/>
+      <c r="Q7" s="87"/>
+    </row>
+    <row r="8" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A8" s="29">
         <f t="shared" ref="A8:A12" si="0">+A7+1</f>
         <v>2</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54" t="s">
+      <c r="C8" s="77"/>
+      <c r="D8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28">
+      <c r="E8" s="32"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="46">
         <v>1</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="50"/>
-      <c r="L8" s="43" t="s">
+      <c r="K8" s="61"/>
+      <c r="L8" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="29">
         <v>900</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="29">
         <v>795</v>
       </c>
-      <c r="O8" s="43" t="s">
+      <c r="O8" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
-    </row>
-    <row r="9" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A9" s="13">
+      <c r="P8" s="31"/>
+      <c r="Q8" s="32"/>
+    </row>
+    <row r="9" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A9" s="29">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57" t="s">
+      <c r="C9" s="78"/>
+      <c r="D9" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="J9" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="50"/>
-      <c r="L9" s="43" t="s">
+      <c r="K9" s="61"/>
+      <c r="L9" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="29">
         <v>940</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="29">
         <v>950</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="29">
         <v>6791</v>
       </c>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
-    </row>
-    <row r="10" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A10" s="15">
+      <c r="P9" s="31"/>
+      <c r="Q9" s="32"/>
+    </row>
+    <row r="10" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A10" s="23">
         <v>4</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="57" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="55"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28">
+      <c r="E10" s="32"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="46">
         <v>1</v>
       </c>
-      <c r="J10" s="49" t="s">
+      <c r="J10" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="50"/>
-      <c r="L10" s="13">
+      <c r="K10" s="61"/>
+      <c r="L10" s="29">
         <v>900</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="29">
         <v>600</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="29">
         <v>616</v>
       </c>
-      <c r="O10" s="43" t="s">
+      <c r="O10" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="60"/>
-    </row>
-    <row r="11" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A11" s="13">
+      <c r="P10" s="84"/>
+      <c r="Q10" s="88"/>
+    </row>
+    <row r="11" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A11" s="29">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="54" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="28">
+      <c r="E11" s="32"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="46">
         <v>1</v>
       </c>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="50"/>
-      <c r="L11" s="13">
+      <c r="K11" s="61"/>
+      <c r="L11" s="29">
         <v>900</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="29">
         <v>600</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="29">
         <v>627</v>
       </c>
-      <c r="O11" s="43" t="s">
+      <c r="O11" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="62"/>
-    </row>
-    <row r="12" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A12" s="13">
+      <c r="P11" s="85"/>
+      <c r="Q11" s="89"/>
+    </row>
+    <row r="12" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A12" s="29">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="54" t="s">
+      <c r="C12" s="69"/>
+      <c r="D12" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="28">
+      <c r="E12" s="32"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="46">
         <v>1</v>
       </c>
-      <c r="J12" s="49" t="s">
+      <c r="J12" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="50"/>
-      <c r="L12" s="43" t="s">
+      <c r="K12" s="61"/>
+      <c r="L12" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="29">
         <v>830</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="29">
         <v>830</v>
       </c>
-      <c r="O12" s="43" t="s">
+      <c r="O12" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="60"/>
-    </row>
-    <row r="13" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A13" s="15">
+      <c r="P12" s="84"/>
+      <c r="Q12" s="88"/>
+    </row>
+    <row r="13" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A13" s="23">
         <v>7</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="57" t="s">
+      <c r="C13" s="77"/>
+      <c r="D13" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="28" t="s">
+      <c r="E13" s="36"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="49" t="s">
+      <c r="J13" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="50"/>
-      <c r="L13" s="13">
+      <c r="K13" s="61"/>
+      <c r="L13" s="29">
         <v>700</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="29">
         <v>400</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="29">
         <v>495</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="29">
         <v>890</v>
       </c>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="40"/>
-    </row>
-    <row r="14" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A14" s="13">
+      <c r="P13" s="85"/>
+      <c r="Q13" s="89"/>
+    </row>
+    <row r="14" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A14" s="29">
         <f t="shared" ref="A14:A18" si="1">+A13+1</f>
         <v>8</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="57" t="s">
+      <c r="C14" s="77"/>
+      <c r="D14" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="28" t="s">
+      <c r="E14" s="36"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="49" t="s">
+      <c r="J14" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="50"/>
-      <c r="L14" s="13">
+      <c r="K14" s="61"/>
+      <c r="L14" s="29">
         <v>700</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="29">
         <v>400</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="29">
         <v>495</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="29">
         <v>890</v>
       </c>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="40"/>
-    </row>
-    <row r="15" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A15" s="13">
+      <c r="P14" s="85"/>
+      <c r="Q14" s="89"/>
+    </row>
+    <row r="15" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A15" s="29">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="54" t="s">
+      <c r="C15" s="32"/>
+      <c r="D15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="28">
+      <c r="E15" s="32"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="46">
         <v>1</v>
       </c>
-      <c r="J15" s="49" t="s">
+      <c r="J15" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="50"/>
-      <c r="L15" s="13">
+      <c r="K15" s="61"/>
+      <c r="L15" s="29">
         <v>800</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="29">
         <v>740</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="29">
         <v>705</v>
       </c>
-      <c r="O15" s="43" t="s">
+      <c r="O15" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="38"/>
-    </row>
-    <row r="16" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A16" s="15">
+      <c r="P15" s="84"/>
+      <c r="Q15" s="88"/>
+    </row>
+    <row r="16" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A16" s="23">
         <v>10</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="54" t="s">
+      <c r="C16" s="80"/>
+      <c r="D16" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="28">
+      <c r="E16" s="32"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="46">
         <v>1</v>
       </c>
-      <c r="J16" s="49" t="s">
+      <c r="J16" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="50"/>
-      <c r="L16" s="13">
+      <c r="K16" s="61"/>
+      <c r="L16" s="29">
         <v>500</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="29">
         <v>380</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="29">
         <v>305</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="29">
         <v>452</v>
       </c>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="40"/>
-    </row>
-    <row r="17" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A17" s="13">
+      <c r="P16" s="85"/>
+      <c r="Q16" s="89"/>
+    </row>
+    <row r="17" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A17" s="29">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="54" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="28">
+      <c r="E17" s="32"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="46">
         <v>1</v>
       </c>
-      <c r="J17" s="49" t="s">
+      <c r="J17" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="50"/>
-      <c r="L17" s="13">
+      <c r="K17" s="61"/>
+      <c r="L17" s="29">
         <v>500</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="29">
         <v>380</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="29">
         <v>305</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="29">
         <v>452</v>
       </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="40"/>
-    </row>
-    <row r="18" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A18" s="13">
+      <c r="P17" s="85"/>
+      <c r="Q17" s="89"/>
+    </row>
+    <row r="18" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A18" s="29">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="57" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="28">
+      <c r="E18" s="36"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="46">
         <v>1</v>
       </c>
-      <c r="J18" s="49" t="s">
+      <c r="J18" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="50"/>
-      <c r="L18" s="13">
+      <c r="K18" s="61"/>
+      <c r="L18" s="29">
         <v>470</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="29">
         <v>680</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="29">
         <v>470</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="29">
         <v>937</v>
       </c>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="40"/>
-    </row>
-    <row r="19" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A19" s="15">
+      <c r="P18" s="85"/>
+      <c r="Q18" s="89"/>
+    </row>
+    <row r="19" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A19" s="23">
         <v>13</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="54" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28">
+      <c r="E19" s="32"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46">
         <v>1</v>
       </c>
-      <c r="J19" s="49" t="s">
+      <c r="J19" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="50"/>
-      <c r="L19" s="13">
+      <c r="K19" s="61"/>
+      <c r="L19" s="29">
         <v>470</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="29">
         <v>680</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="29">
         <v>470</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="29">
         <v>937</v>
       </c>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="40"/>
-    </row>
-    <row r="20" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A20" s="13">
+      <c r="P19" s="85"/>
+      <c r="Q19" s="89"/>
+    </row>
+    <row r="20" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A20" s="29">
         <f t="shared" ref="A20:A24" si="2">+A19+1</f>
         <v>14</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="54" t="s">
+      <c r="C20" s="36"/>
+      <c r="D20" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28">
+      <c r="E20" s="32"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46">
         <v>1</v>
       </c>
-      <c r="J20" s="49" t="s">
+      <c r="J20" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="50"/>
-      <c r="L20" s="13">
+      <c r="K20" s="61"/>
+      <c r="L20" s="29">
         <v>700</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="29">
         <v>450</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="29">
         <v>490</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="29">
         <v>850</v>
       </c>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="40"/>
-    </row>
-    <row r="21" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A21" s="13">
+      <c r="P20" s="85"/>
+      <c r="Q20" s="89"/>
+    </row>
+    <row r="21" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A21" s="29">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="57" t="s">
+      <c r="C21" s="36"/>
+      <c r="D21" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="28">
+      <c r="E21" s="36"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="46">
         <v>1</v>
       </c>
-      <c r="J21" s="49" t="s">
+      <c r="J21" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="50"/>
-      <c r="L21" s="13">
+      <c r="K21" s="61"/>
+      <c r="L21" s="29">
         <v>900</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="29">
         <v>600</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="29">
         <v>616</v>
       </c>
-      <c r="O21" s="43" t="s">
+      <c r="O21" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="40"/>
-    </row>
-    <row r="22" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A22" s="15">
+      <c r="P21" s="85"/>
+      <c r="Q21" s="89"/>
+    </row>
+    <row r="22" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A22" s="23">
         <v>16</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="57" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="28">
+      <c r="E22" s="36"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="46">
         <v>1</v>
       </c>
-      <c r="J22" s="49" t="s">
+      <c r="J22" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="K22" s="50"/>
-      <c r="L22" s="13">
+      <c r="K22" s="61"/>
+      <c r="L22" s="29">
         <v>600</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="29">
         <v>490</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="29">
         <v>535</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="29">
         <v>860</v>
       </c>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="38"/>
-    </row>
-    <row r="23" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A23" s="13">
+      <c r="P22" s="84"/>
+      <c r="Q22" s="88"/>
+    </row>
+    <row r="23" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A23" s="29">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="54" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="28">
+      <c r="E23" s="32"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="46">
         <v>2</v>
       </c>
-      <c r="J23" s="49" t="s">
+      <c r="J23" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="50"/>
-      <c r="L23" s="13">
+      <c r="K23" s="61"/>
+      <c r="L23" s="29">
         <v>350</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="29">
         <v>280</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="29">
         <v>225</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="29">
         <v>185</v>
       </c>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="40"/>
-    </row>
-    <row r="24" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A24" s="13">
+      <c r="P23" s="85"/>
+      <c r="Q23" s="89"/>
+    </row>
+    <row r="24" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A24" s="29">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="54" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="28">
+      <c r="E24" s="32"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="46">
         <v>1</v>
       </c>
-      <c r="J24" s="49" t="s">
+      <c r="J24" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="50"/>
-      <c r="L24" s="13">
+      <c r="K24" s="61"/>
+      <c r="L24" s="29">
         <v>200</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="29">
         <v>260</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="29">
         <v>250</v>
       </c>
-      <c r="O24" s="43" t="s">
+      <c r="O24" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="40"/>
-    </row>
-    <row r="25" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A25" s="15">
+      <c r="P24" s="85"/>
+      <c r="Q24" s="89"/>
+    </row>
+    <row r="25" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A25" s="23">
         <v>19</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="54" t="s">
+      <c r="C25" s="32"/>
+      <c r="D25" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="28">
+      <c r="E25" s="32"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="46">
         <v>1</v>
       </c>
-      <c r="J25" s="49"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="13">
+      <c r="J25" s="60"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="29">
         <v>230</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="29">
         <v>260</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="29">
         <v>285</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="29">
         <v>136</v>
       </c>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="40"/>
-    </row>
-    <row r="26" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A26" s="13">
+      <c r="P25" s="85"/>
+      <c r="Q25" s="89"/>
+    </row>
+    <row r="26" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A26" s="29">
         <f t="shared" ref="A26:A30" si="3">+A25+1</f>
         <v>20</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="57" t="s">
+      <c r="C26" s="36"/>
+      <c r="D26" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="28">
+      <c r="E26" s="36"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="46">
         <v>1</v>
       </c>
-      <c r="J26" s="49" t="s">
+      <c r="J26" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="K26" s="50"/>
-      <c r="L26" s="13">
+      <c r="K26" s="61"/>
+      <c r="L26" s="29">
         <v>900</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="29">
         <v>600</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N26" s="29">
         <v>620</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="29">
         <v>2.089</v>
       </c>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="40"/>
-    </row>
-    <row r="27" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A27" s="13">
+      <c r="P26" s="85"/>
+      <c r="Q26" s="89"/>
+    </row>
+    <row r="27" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A27" s="29">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="57" t="s">
+      <c r="C27" s="36"/>
+      <c r="D27" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="28">
+      <c r="E27" s="36"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="46">
         <v>1</v>
       </c>
-      <c r="J27" s="49" t="s">
+      <c r="J27" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="K27" s="50"/>
-      <c r="L27" s="13">
+      <c r="K27" s="61"/>
+      <c r="L27" s="29">
         <v>900</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="29">
         <v>740</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="29">
         <v>620</v>
       </c>
-      <c r="O27" s="43" t="s">
+      <c r="O27" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="19"/>
-    </row>
-    <row r="28" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A28" s="15">
+      <c r="P27" s="31"/>
+      <c r="Q27" s="32"/>
+    </row>
+    <row r="28" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A28" s="23">
         <v>22</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="57" t="s">
+      <c r="C28" s="32"/>
+      <c r="D28" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="28">
+      <c r="E28" s="36"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="46">
         <v>1</v>
       </c>
-      <c r="J28" s="49" t="s">
+      <c r="J28" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="50"/>
-      <c r="L28" s="13">
+      <c r="K28" s="61"/>
+      <c r="L28" s="29">
         <v>700</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="29">
         <v>600</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N28" s="29">
         <v>650</v>
       </c>
-      <c r="O28" s="43" t="s">
+      <c r="O28" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="40"/>
-    </row>
-    <row r="29" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A29" s="13">
+      <c r="P28" s="85"/>
+      <c r="Q28" s="89"/>
+    </row>
+    <row r="29" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A29" s="29">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="54" t="s">
+      <c r="C29" s="32"/>
+      <c r="D29" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="28">
+      <c r="E29" s="32"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="46">
         <v>2</v>
       </c>
-      <c r="J29" s="49" t="s">
+      <c r="J29" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="50"/>
-      <c r="L29" s="13">
+      <c r="K29" s="61"/>
+      <c r="L29" s="29">
         <v>350</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="29">
         <v>280</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="29">
         <v>250</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="29">
         <v>96</v>
       </c>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="40"/>
-    </row>
-    <row r="30" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A30" s="13">
+      <c r="P29" s="85"/>
+      <c r="Q29" s="89"/>
+    </row>
+    <row r="30" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A30" s="29">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="57" t="s">
+      <c r="C30" s="32"/>
+      <c r="D30" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="28" t="s">
+      <c r="E30" s="36"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="J30" s="49" t="s">
+      <c r="J30" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="50"/>
-      <c r="L30" s="43" t="s">
+      <c r="K30" s="61"/>
+      <c r="L30" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="29">
         <v>940</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="29">
         <v>950</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="29">
         <v>6791</v>
       </c>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="19"/>
-    </row>
-    <row r="31" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A31" s="15">
+      <c r="P30" s="31"/>
+      <c r="Q30" s="32"/>
+    </row>
+    <row r="31" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A31" s="23">
         <v>25</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="47" t="s">
+      <c r="C31" s="75"/>
+      <c r="D31" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="48"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="74" t="s">
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="I31" s="26">
+      <c r="I31" s="59">
         <v>1</v>
       </c>
-      <c r="J31" s="67" t="s">
+      <c r="J31" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="K31" s="68"/>
-      <c r="L31" s="17">
+      <c r="K31" s="64"/>
+      <c r="L31" s="27">
         <v>802</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M31" s="27">
         <v>550</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N31" s="27">
         <v>410</v>
       </c>
-      <c r="O31" s="17">
-        <v>1057.9000000000001</v>
-      </c>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="51"/>
-    </row>
-    <row r="32" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A32" s="13">
+      <c r="O31" s="27">
+        <v>1057.9</v>
+      </c>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="87"/>
+    </row>
+    <row r="32" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A32" s="29">
         <f>+A31+1</f>
         <v>26</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="57" t="s">
+      <c r="C32" s="78"/>
+      <c r="D32" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="41">
+      <c r="E32" s="36"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="86">
         <v>1</v>
       </c>
-      <c r="J32" s="49" t="s">
+      <c r="J32" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="K32" s="50"/>
-      <c r="L32" s="13">
+      <c r="K32" s="61"/>
+      <c r="L32" s="29">
         <v>250</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="29">
         <v>250</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N32" s="29">
         <v>400</v>
       </c>
-      <c r="O32" s="13">
+      <c r="O32" s="29">
         <v>146</v>
       </c>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="55"/>
-    </row>
-    <row r="33" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A33" s="13">
+      <c r="P32" s="31"/>
+      <c r="Q32" s="32"/>
+    </row>
+    <row r="33" ht="98.1" customHeight="1" spans="1:17">
+      <c r="A33" s="29">
         <f>+A32+1</f>
         <v>27</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="57" t="s">
+      <c r="C33" s="32"/>
+      <c r="D33" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="41">
+      <c r="E33" s="36"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="86">
         <v>1</v>
       </c>
-      <c r="J33" s="49" t="s">
+      <c r="J33" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="K33" s="50"/>
-      <c r="L33" s="13">
+      <c r="K33" s="61"/>
+      <c r="L33" s="29">
         <v>450</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="29">
         <v>450</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="29">
         <v>400</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O33" s="29">
         <v>473.8</v>
       </c>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="19"/>
-    </row>
-    <row r="34" spans="1:17" ht="98.1" customHeight="1"/>
-    <row r="35" spans="1:17">
-      <c r="K35" s="36"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="32"/>
+    </row>
+    <row r="34" ht="98.1" customHeight="1"/>
+    <row r="35" spans="11:11">
+      <c r="K35" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="E1:K4"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="P5:Q6"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="J9:K9"/>
@@ -3195,1506 +3733,1514 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="O5:O6"/>
+    <mergeCell ref="E1:K4"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="P5:Q6"/>
   </mergeCells>
-  <pageMargins left="0.156944444444444" right="0.156944444444444" top="0.59027777777777801" bottom="0.39305555555555599" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="29" fitToHeight="8" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.156944444444444" right="0.156944444444444" top="0.590277777777778" bottom="0.393055555555556" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="29" fitToHeight="8" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="33" max="16383" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:F35"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.75" style="1" customWidth="1"/>
-    <col min="18" max="18" width="3.375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="11.5" style="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.075" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="3.375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="1"/>
+    <col min="19" max="19" width="11.5" style="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="77" t="s">
+    <row r="1" ht="18.75" customHeight="1" spans="1:16">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="22" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="22" t="s">
+      <c r="M1" s="54"/>
+      <c r="N1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="22" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="22" t="s">
+      <c r="M2" s="54"/>
+      <c r="N2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="22" t="s">
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="22" t="s">
+      <c r="M3" s="54"/>
+      <c r="N3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="22" t="s">
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="22" t="s">
+      <c r="M4" s="54"/>
+      <c r="N4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-    </row>
-    <row r="5" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A5" s="44" t="s">
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="63" t="s">
+      <c r="D5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="70" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="G5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="H5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="I5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="44" t="s">
+      <c r="J5" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="58"/>
+      <c r="L5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q5" s="52" t="s">
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="58" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A6" s="69"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="14" t="s">
+      <c r="Q5" s="58"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="M6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="N6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="88"/>
-    </row>
-    <row r="7" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A7" s="15">
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+    </row>
+    <row r="7" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A7" s="23">
         <v>1</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47" t="s">
+      <c r="D7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26">
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="59">
         <v>1</v>
       </c>
-      <c r="K7" s="49" t="s">
+      <c r="J7" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="42" t="s">
+      <c r="K7" s="61"/>
+      <c r="L7" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="17">
+      <c r="M7" s="27">
         <v>900</v>
       </c>
-      <c r="O7" s="17">
+      <c r="N7" s="27">
         <v>795</v>
       </c>
-      <c r="P7" s="42" t="s">
+      <c r="O7" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="16"/>
-    </row>
-    <row r="8" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A8" s="13">
+      <c r="P7" s="25"/>
+    </row>
+    <row r="8" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A8" s="29">
         <f t="shared" ref="A8:A9" si="0">+A7+1</f>
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54" t="s">
+      <c r="D8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28">
+      <c r="E8" s="32"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="46">
         <v>1</v>
       </c>
-      <c r="K8" s="49" t="s">
+      <c r="J8" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="50"/>
-      <c r="M8" s="43" t="s">
+      <c r="K8" s="61"/>
+      <c r="L8" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="13">
+      <c r="M8" s="29">
         <v>900</v>
       </c>
-      <c r="O8" s="13">
+      <c r="N8" s="29">
         <v>795</v>
       </c>
-      <c r="P8" s="43" t="s">
+      <c r="O8" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="18"/>
-    </row>
-    <row r="9" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A9" s="70">
+      <c r="P8" s="31"/>
+    </row>
+    <row r="9" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A9" s="34">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="52" t="s">
+      <c r="B9" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28" t="s">
+      <c r="D9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="49" t="s">
+      <c r="J9" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="50"/>
-      <c r="M9" s="43" t="s">
+      <c r="K9" s="61"/>
+      <c r="L9" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="13">
+      <c r="M9" s="29">
         <v>940</v>
       </c>
-      <c r="O9" s="13">
+      <c r="N9" s="29">
         <v>950</v>
       </c>
-      <c r="P9" s="13">
+      <c r="O9" s="29">
         <v>6791</v>
       </c>
-      <c r="Q9" s="18"/>
-    </row>
-    <row r="10" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A10" s="92"/>
-      <c r="B10" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57" t="s">
+      <c r="P9" s="31"/>
+    </row>
+    <row r="10" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A10" s="23"/>
+      <c r="B10" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="18"/>
-    </row>
-    <row r="11" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A11" s="15">
+      <c r="C10" s="30"/>
+      <c r="D10" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="31"/>
+    </row>
+    <row r="11" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A11" s="23">
         <v>4</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="54" t="s">
+      <c r="B11" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="57" t="s">
+      <c r="D11" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="28">
+      <c r="E11" s="32"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="46">
         <v>1</v>
       </c>
-      <c r="K11" s="49" t="s">
+      <c r="J11" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="50"/>
-      <c r="M11" s="13">
+      <c r="K11" s="61"/>
+      <c r="L11" s="29">
         <v>900</v>
       </c>
-      <c r="N11" s="13">
+      <c r="M11" s="29">
         <v>600</v>
       </c>
-      <c r="O11" s="13">
+      <c r="N11" s="29">
         <v>616</v>
       </c>
-      <c r="P11" s="43" t="s">
+      <c r="O11" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="Q11" s="90"/>
-    </row>
-    <row r="12" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A12" s="13">
+      <c r="P11" s="62"/>
+    </row>
+    <row r="12" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A12" s="29">
         <f>+A11+1</f>
         <v>5</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="54" t="s">
+      <c r="D12" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="28">
+      <c r="E12" s="32"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="46">
         <v>1</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="J12" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="50"/>
-      <c r="M12" s="13">
+      <c r="K12" s="61"/>
+      <c r="L12" s="29">
         <v>900</v>
       </c>
-      <c r="N12" s="13">
+      <c r="M12" s="29">
         <v>600</v>
       </c>
-      <c r="O12" s="13">
+      <c r="N12" s="29">
         <v>627</v>
       </c>
-      <c r="P12" s="43" t="s">
+      <c r="O12" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="Q12" s="90"/>
-    </row>
-    <row r="13" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A13" s="13">
+      <c r="P12" s="62"/>
+    </row>
+    <row r="13" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A13" s="29">
         <f>+A12+1</f>
         <v>6</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="54" t="s">
+      <c r="D13" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="28">
+      <c r="E13" s="32"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="46">
         <v>1</v>
       </c>
-      <c r="K13" s="49" t="s">
+      <c r="J13" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="50"/>
-      <c r="M13" s="43" t="s">
+      <c r="K13" s="61"/>
+      <c r="L13" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="13">
+      <c r="M13" s="29">
         <v>830</v>
       </c>
-      <c r="O13" s="13">
+      <c r="N13" s="29">
         <v>830</v>
       </c>
-      <c r="P13" s="43" t="s">
+      <c r="O13" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="Q13" s="90"/>
-    </row>
-    <row r="14" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A14" s="70">
+      <c r="P13" s="62"/>
+    </row>
+    <row r="14" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A14" s="34">
         <v>7</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="52" t="s">
+      <c r="B14" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="28" t="s">
+      <c r="D14" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="49" t="s">
+      <c r="J14" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="50"/>
-      <c r="M14" s="13">
+      <c r="K14" s="61"/>
+      <c r="L14" s="29">
         <v>700</v>
       </c>
-      <c r="N14" s="13">
+      <c r="M14" s="29">
         <v>400</v>
       </c>
-      <c r="O14" s="13">
+      <c r="N14" s="29">
         <v>495</v>
       </c>
-      <c r="P14" s="13">
+      <c r="O14" s="29">
         <v>890</v>
       </c>
-      <c r="Q14" s="90"/>
-    </row>
-    <row r="15" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A15" s="92"/>
-      <c r="B15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="57" t="s">
+      <c r="P14" s="62"/>
+    </row>
+    <row r="15" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A15" s="23"/>
+      <c r="B15" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="90"/>
-    </row>
-    <row r="16" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A16" s="70">
+      <c r="C15" s="30"/>
+      <c r="D15" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="62"/>
+    </row>
+    <row r="16" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A16" s="34">
         <f>+A14+1</f>
         <v>8</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="52" t="s">
+      <c r="B16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="28" t="s">
+      <c r="D16" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="49" t="s">
+      <c r="J16" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="50"/>
-      <c r="M16" s="13">
+      <c r="K16" s="61"/>
+      <c r="L16" s="29">
         <v>700</v>
       </c>
-      <c r="N16" s="13">
+      <c r="M16" s="29">
         <v>400</v>
       </c>
-      <c r="O16" s="13">
+      <c r="N16" s="29">
         <v>495</v>
       </c>
-      <c r="P16" s="13">
+      <c r="O16" s="29">
         <v>890</v>
       </c>
-      <c r="Q16" s="90"/>
-    </row>
-    <row r="17" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A17" s="92"/>
-      <c r="B17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="57" t="s">
+      <c r="P16" s="62"/>
+    </row>
+    <row r="17" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A17" s="23"/>
+      <c r="B17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="90"/>
-    </row>
-    <row r="18" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A18" s="13">
+      <c r="C17" s="30"/>
+      <c r="D17" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="62"/>
+    </row>
+    <row r="18" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A18" s="29">
         <f>+A16+1</f>
         <v>9</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="54" t="s">
+      <c r="C18" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="28">
+      <c r="E18" s="32"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="46">
         <v>1</v>
       </c>
-      <c r="K18" s="49" t="s">
+      <c r="J18" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="L18" s="50"/>
-      <c r="M18" s="13">
+      <c r="K18" s="61"/>
+      <c r="L18" s="29">
         <v>800</v>
       </c>
-      <c r="N18" s="13">
+      <c r="M18" s="29">
         <v>740</v>
       </c>
-      <c r="O18" s="13">
+      <c r="N18" s="29">
         <v>705</v>
       </c>
-      <c r="P18" s="43" t="s">
+      <c r="O18" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="Q18" s="90"/>
-    </row>
-    <row r="19" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A19" s="15">
+      <c r="P18" s="62"/>
+    </row>
+    <row r="19" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A19" s="23">
         <v>10</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="65" t="s">
+      <c r="B19" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="28">
+      <c r="D19" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="46">
         <v>1</v>
       </c>
-      <c r="K19" s="49" t="s">
+      <c r="J19" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="L19" s="50"/>
-      <c r="M19" s="13">
+      <c r="K19" s="61"/>
+      <c r="L19" s="29">
         <v>500</v>
       </c>
-      <c r="N19" s="13">
+      <c r="M19" s="29">
         <v>380</v>
       </c>
-      <c r="O19" s="13">
+      <c r="N19" s="29">
         <v>305</v>
       </c>
-      <c r="P19" s="13">
+      <c r="O19" s="29">
         <v>452</v>
       </c>
-      <c r="Q19" s="90"/>
-    </row>
-    <row r="20" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A20" s="13">
+      <c r="P19" s="62"/>
+    </row>
+    <row r="20" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A20" s="29">
         <f>+A19+1</f>
         <v>11</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="54" t="s">
+      <c r="D20" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="28">
+      <c r="E20" s="32"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="46">
         <v>1</v>
       </c>
-      <c r="K20" s="49" t="s">
+      <c r="J20" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="50"/>
-      <c r="M20" s="13">
+      <c r="K20" s="61"/>
+      <c r="L20" s="29">
         <v>500</v>
       </c>
-      <c r="N20" s="13">
+      <c r="M20" s="29">
         <v>380</v>
       </c>
-      <c r="O20" s="13">
+      <c r="N20" s="29">
         <v>305</v>
       </c>
-      <c r="P20" s="13">
+      <c r="O20" s="29">
         <v>452</v>
       </c>
-      <c r="Q20" s="90"/>
-    </row>
-    <row r="21" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A21" s="13">
+      <c r="P20" s="62"/>
+    </row>
+    <row r="21" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A21" s="29">
         <f>+A20+1</f>
         <v>12</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="57" t="s">
+      <c r="D21" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="28">
+      <c r="E21" s="36"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="46">
         <v>1</v>
       </c>
-      <c r="K21" s="49" t="s">
+      <c r="J21" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="50"/>
-      <c r="M21" s="13">
+      <c r="K21" s="61"/>
+      <c r="L21" s="29">
         <v>470</v>
       </c>
-      <c r="N21" s="13">
+      <c r="M21" s="29">
         <v>680</v>
       </c>
-      <c r="O21" s="13">
+      <c r="N21" s="29">
         <v>470</v>
       </c>
-      <c r="P21" s="13">
+      <c r="O21" s="29">
         <v>937</v>
       </c>
-      <c r="Q21" s="90"/>
-    </row>
-    <row r="22" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A22" s="15">
+      <c r="P21" s="62"/>
+    </row>
+    <row r="22" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A22" s="23">
         <v>13</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="54" t="s">
+      <c r="D22" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28">
+      <c r="E22" s="32"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46">
         <v>1</v>
       </c>
-      <c r="K22" s="49" t="s">
+      <c r="J22" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="L22" s="50"/>
-      <c r="M22" s="13">
+      <c r="K22" s="61"/>
+      <c r="L22" s="29">
         <v>470</v>
       </c>
-      <c r="N22" s="13">
+      <c r="M22" s="29">
         <v>680</v>
       </c>
-      <c r="O22" s="13">
+      <c r="N22" s="29">
         <v>470</v>
       </c>
-      <c r="P22" s="13">
+      <c r="O22" s="29">
         <v>937</v>
       </c>
-      <c r="Q22" s="90"/>
-    </row>
-    <row r="23" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A23" s="13">
+      <c r="P22" s="62"/>
+    </row>
+    <row r="23" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A23" s="29">
         <f t="shared" ref="A23:A27" si="1">+A22+1</f>
         <v>14</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="54" t="s">
+      <c r="D23" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28">
+      <c r="E23" s="32"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46">
         <v>1</v>
       </c>
-      <c r="K23" s="49" t="s">
+      <c r="J23" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="L23" s="50"/>
-      <c r="M23" s="13">
+      <c r="K23" s="61"/>
+      <c r="L23" s="29">
         <v>700</v>
       </c>
-      <c r="N23" s="13">
+      <c r="M23" s="29">
         <v>450</v>
       </c>
-      <c r="O23" s="13">
+      <c r="N23" s="29">
         <v>490</v>
       </c>
-      <c r="P23" s="13">
+      <c r="O23" s="29">
         <v>850</v>
       </c>
-      <c r="Q23" s="90"/>
-    </row>
-    <row r="24" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A24" s="13">
+      <c r="P23" s="62"/>
+    </row>
+    <row r="24" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A24" s="29">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="57" t="s">
+      <c r="B24" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="57" t="s">
+      <c r="D24" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="28">
+      <c r="E24" s="36"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="46">
         <v>1</v>
       </c>
-      <c r="K24" s="49" t="s">
+      <c r="J24" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="L24" s="50"/>
-      <c r="M24" s="13">
+      <c r="K24" s="61"/>
+      <c r="L24" s="29">
         <v>900</v>
       </c>
-      <c r="N24" s="13">
+      <c r="M24" s="29">
         <v>600</v>
       </c>
-      <c r="O24" s="13">
+      <c r="N24" s="29">
         <v>616</v>
       </c>
-      <c r="P24" s="43" t="s">
+      <c r="O24" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="Q24" s="90"/>
-    </row>
-    <row r="25" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A25" s="15">
+      <c r="P24" s="62"/>
+    </row>
+    <row r="25" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A25" s="23">
         <v>16</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="57" t="s">
+      <c r="D25" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="28">
+      <c r="E25" s="36"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="46">
         <v>1</v>
       </c>
-      <c r="K25" s="49" t="s">
+      <c r="J25" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="50"/>
-      <c r="M25" s="13">
+      <c r="K25" s="61"/>
+      <c r="L25" s="29">
         <v>600</v>
       </c>
-      <c r="N25" s="13">
+      <c r="M25" s="29">
         <v>490</v>
       </c>
-      <c r="O25" s="13">
+      <c r="N25" s="29">
         <v>535</v>
       </c>
-      <c r="P25" s="13">
+      <c r="O25" s="29">
         <v>860</v>
       </c>
-      <c r="Q25" s="90"/>
-    </row>
-    <row r="26" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A26" s="13">
+      <c r="P25" s="62"/>
+    </row>
+    <row r="26" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A26" s="29">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="54" t="s">
+      <c r="D26" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="28">
+      <c r="E26" s="32"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="46">
         <v>2</v>
       </c>
-      <c r="K26" s="49" t="s">
+      <c r="J26" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="L26" s="50"/>
-      <c r="M26" s="13">
+      <c r="K26" s="61"/>
+      <c r="L26" s="29">
         <v>350</v>
       </c>
-      <c r="N26" s="13">
+      <c r="M26" s="29">
         <v>280</v>
       </c>
-      <c r="O26" s="13">
+      <c r="N26" s="29">
         <v>225</v>
       </c>
-      <c r="P26" s="13">
+      <c r="O26" s="29">
         <v>185</v>
       </c>
-      <c r="Q26" s="90"/>
-    </row>
-    <row r="27" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A27" s="13">
+      <c r="P26" s="62"/>
+    </row>
+    <row r="27" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A27" s="29">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="54" t="s">
+      <c r="D27" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="28">
+      <c r="E27" s="32"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="46">
         <v>1</v>
       </c>
-      <c r="K27" s="49" t="s">
+      <c r="J27" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="L27" s="50"/>
-      <c r="M27" s="13">
+      <c r="K27" s="61"/>
+      <c r="L27" s="29">
         <v>200</v>
       </c>
-      <c r="N27" s="13">
+      <c r="M27" s="29">
         <v>260</v>
       </c>
-      <c r="O27" s="13">
+      <c r="N27" s="29">
         <v>250</v>
       </c>
-      <c r="P27" s="43" t="s">
+      <c r="O27" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="Q27" s="90"/>
-    </row>
-    <row r="28" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A28" s="15">
+      <c r="P27" s="62"/>
+    </row>
+    <row r="28" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A28" s="23">
         <v>19</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="54" t="s">
+      <c r="D28" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="28">
+      <c r="E28" s="32"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="46">
         <v>1</v>
       </c>
-      <c r="K28" s="49"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="13">
+      <c r="J28" s="60"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="29">
         <v>230</v>
       </c>
-      <c r="N28" s="13">
+      <c r="M28" s="29">
         <v>260</v>
       </c>
-      <c r="O28" s="13">
+      <c r="N28" s="29">
         <v>285</v>
       </c>
-      <c r="P28" s="13">
+      <c r="O28" s="29">
         <v>136</v>
       </c>
-      <c r="Q28" s="90"/>
-    </row>
-    <row r="29" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A29" s="13">
+      <c r="P28" s="62"/>
+    </row>
+    <row r="29" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A29" s="29">
         <f t="shared" ref="A29:A33" si="2">+A28+1</f>
         <v>20</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="57" t="s">
+      <c r="D29" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="58"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="28">
+      <c r="E29" s="36"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="46">
         <v>1</v>
       </c>
-      <c r="K29" s="49" t="s">
+      <c r="J29" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="L29" s="50"/>
-      <c r="M29" s="13">
+      <c r="K29" s="61"/>
+      <c r="L29" s="29">
         <v>900</v>
       </c>
-      <c r="N29" s="13">
+      <c r="M29" s="29">
         <v>600</v>
       </c>
-      <c r="O29" s="13">
+      <c r="N29" s="29">
         <v>620</v>
       </c>
-      <c r="P29" s="13">
+      <c r="O29" s="29">
         <v>2.089</v>
       </c>
-      <c r="Q29" s="90"/>
-    </row>
-    <row r="30" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A30" s="13">
+      <c r="P29" s="62"/>
+    </row>
+    <row r="30" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A30" s="29">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="57" t="s">
+      <c r="D30" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="58"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="28">
+      <c r="E30" s="36"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="46">
         <v>1</v>
       </c>
-      <c r="K30" s="49" t="s">
+      <c r="J30" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="L30" s="50"/>
-      <c r="M30" s="13">
+      <c r="K30" s="61"/>
+      <c r="L30" s="29">
         <v>900</v>
       </c>
-      <c r="N30" s="13">
+      <c r="M30" s="29">
         <v>740</v>
       </c>
-      <c r="O30" s="13">
+      <c r="N30" s="29">
         <v>620</v>
       </c>
-      <c r="P30" s="43" t="s">
+      <c r="O30" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="Q30" s="90"/>
-    </row>
-    <row r="31" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A31" s="15">
+      <c r="P30" s="62"/>
+    </row>
+    <row r="31" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A31" s="23">
         <v>22</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="54" t="s">
+      <c r="B31" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="58"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="28">
+      <c r="D31" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="36"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="46">
         <v>1</v>
       </c>
-      <c r="K31" s="49" t="s">
+      <c r="J31" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="L31" s="50"/>
-      <c r="M31" s="13">
+      <c r="K31" s="61"/>
+      <c r="L31" s="29">
         <v>700</v>
       </c>
-      <c r="N31" s="13">
+      <c r="M31" s="29">
         <v>600</v>
       </c>
-      <c r="O31" s="13">
+      <c r="N31" s="29">
         <v>650</v>
       </c>
-      <c r="P31" s="43" t="s">
+      <c r="O31" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="Q31" s="90"/>
-    </row>
-    <row r="32" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A32" s="13">
+      <c r="P31" s="62"/>
+    </row>
+    <row r="32" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A32" s="29">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="54" t="s">
+      <c r="D32" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="55"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="28">
+      <c r="E32" s="32"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="46">
         <v>2</v>
       </c>
-      <c r="K32" s="49" t="s">
+      <c r="J32" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="L32" s="50"/>
-      <c r="M32" s="13">
+      <c r="K32" s="61"/>
+      <c r="L32" s="29">
         <v>350</v>
       </c>
-      <c r="N32" s="13">
+      <c r="M32" s="29">
         <v>280</v>
       </c>
-      <c r="O32" s="13">
+      <c r="N32" s="29">
         <v>250</v>
       </c>
-      <c r="P32" s="13">
+      <c r="O32" s="29">
         <v>96</v>
       </c>
-      <c r="Q32" s="90"/>
-    </row>
-    <row r="33" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A33" s="70">
+      <c r="P32" s="62"/>
+    </row>
+    <row r="33" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A33" s="34">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="54" t="s">
+      <c r="B33" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="58"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="28" t="s">
+      <c r="D33" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="36"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="K33" s="49" t="s">
+      <c r="J33" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="L33" s="50"/>
-      <c r="M33" s="43" t="s">
+      <c r="K33" s="61"/>
+      <c r="L33" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="N33" s="13">
+      <c r="M33" s="29">
         <v>940</v>
       </c>
-      <c r="O33" s="13">
+      <c r="N33" s="29">
         <v>950</v>
       </c>
-      <c r="P33" s="13">
+      <c r="O33" s="29">
         <v>6791</v>
       </c>
-      <c r="Q33" s="90"/>
-    </row>
-    <row r="34" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A34" s="92"/>
-      <c r="B34" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="57" t="s">
+      <c r="P33" s="62"/>
+    </row>
+    <row r="34" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A34" s="23"/>
+      <c r="B34" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="58"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="90"/>
-    </row>
-    <row r="35" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A35" s="15">
+      <c r="C34" s="38"/>
+      <c r="D34" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="36"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="62"/>
+    </row>
+    <row r="35" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A35" s="23">
         <v>25</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47" t="s">
+      <c r="D35" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="48"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="74" t="s">
+      <c r="E35" s="26"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="J35" s="26">
+      <c r="I35" s="59">
         <v>1</v>
       </c>
-      <c r="K35" s="67" t="s">
+      <c r="J35" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="L35" s="68"/>
-      <c r="M35" s="17">
+      <c r="K35" s="64"/>
+      <c r="L35" s="27">
         <v>802</v>
       </c>
-      <c r="N35" s="17">
+      <c r="M35" s="27">
         <v>550</v>
       </c>
-      <c r="O35" s="17">
+      <c r="N35" s="27">
         <v>410</v>
       </c>
-      <c r="P35" s="17">
-        <v>1057.9000000000001</v>
-      </c>
-      <c r="Q35" s="91"/>
-    </row>
-    <row r="36" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A36" s="13">
+      <c r="O35" s="27">
+        <v>1057.9</v>
+      </c>
+      <c r="P35" s="65"/>
+    </row>
+    <row r="36" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A36" s="29">
         <f>+A35+1</f>
         <v>26</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="52" t="s">
+      <c r="B36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36" s="58"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="28">
+      <c r="D36" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="36"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="46">
         <v>1</v>
       </c>
-      <c r="K36" s="49" t="s">
+      <c r="J36" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="L36" s="50"/>
-      <c r="M36" s="13">
+      <c r="K36" s="61"/>
+      <c r="L36" s="29">
         <v>250</v>
       </c>
-      <c r="N36" s="13">
+      <c r="M36" s="29">
         <v>250</v>
       </c>
-      <c r="O36" s="13">
+      <c r="N36" s="29">
         <v>400</v>
       </c>
-      <c r="P36" s="13">
+      <c r="O36" s="29">
         <v>146</v>
       </c>
-      <c r="Q36" s="90"/>
-    </row>
-    <row r="37" spans="1:17" ht="98.1" customHeight="1">
-      <c r="A37" s="13">
+      <c r="P36" s="62"/>
+    </row>
+    <row r="37" ht="98.1" customHeight="1" spans="1:16">
+      <c r="A37" s="29">
         <f>+A36+1</f>
         <v>27</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="54" t="s">
+      <c r="B37" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="F37" s="58"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="28">
+      <c r="D37" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="36"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="46">
         <v>1</v>
       </c>
-      <c r="K37" s="49" t="s">
+      <c r="J37" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="L37" s="50"/>
-      <c r="M37" s="13">
+      <c r="K37" s="61"/>
+      <c r="L37" s="29">
         <v>450</v>
       </c>
-      <c r="N37" s="13">
+      <c r="M37" s="29">
         <v>450</v>
       </c>
-      <c r="O37" s="13">
+      <c r="N37" s="29">
         <v>400</v>
       </c>
-      <c r="P37" s="13">
+      <c r="O37" s="29">
         <v>473.8</v>
       </c>
-      <c r="Q37" s="18"/>
-    </row>
-    <row r="38" spans="1:17" ht="98.1" customHeight="1"/>
-    <row r="39" spans="1:17">
-      <c r="L39" s="36"/>
+      <c r="P37" s="31"/>
+    </row>
+    <row r="38" ht="98.1" customHeight="1"/>
+    <row r="39" spans="11:11">
+      <c r="K39" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
-    <mergeCell ref="F1:L4"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
+  <mergeCells count="81">
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A33:A34"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H35:H37"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="E1:K4"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="P5:Q6"/>
   </mergeCells>
-  <pageMargins left="0.156944444444444" right="0.156944444444444" top="0.59027777777777801" bottom="0.39305555555555599" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="25" fitToHeight="8" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.156944444444444" right="0.156944444444444" top="0.590277777777778" bottom="0.393055555555556" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="25" fitToHeight="8" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -4702,8 +5248,8 @@
     <brk id="37" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
-    <ignoredError sqref="M7:P8 M9 M11:P13" numberStoredAsText="1"/>
+    <ignoredError sqref="L11:O13 L9 L7:O8" numberStoredAsText="1"/>
   </ignoredErrors>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>